--- a/populationInfo/OriginalMetadata/DrosEU_allYears_210120.xlsx
+++ b/populationInfo/OriginalMetadata/DrosEU_allYears_210120.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanbergland/Documents/GitHub/DEST_freeze1/populationInfo/OriginalMetadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DEBE0F-C6D9-4C4D-BB02-5C63EA532DB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345F6719-C584-0D44-B62C-FC3BA8FE6A88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2000" yWindow="460" windowWidth="35620" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3754" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3753" uniqueCount="387">
   <si>
     <t>Country</t>
   </si>
@@ -1179,9 +1179,6 @@
     <t>14 wild-caugh males + 26 F1 sons of wild-caught females</t>
   </si>
   <si>
-    <t>32,71425+M68:M86</t>
-  </si>
-  <si>
     <t>21 wild-caugh males + 19 F1 sons of wild-caught females</t>
   </si>
   <si>
@@ -1755,7 +1752,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="16" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F11" sqref="F11"/>
+      <selection pane="topRight" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -24262,8 +24259,8 @@
       <c r="L67" s="2">
         <v>50.484694439999998</v>
       </c>
-      <c r="M67" s="2" t="s">
-        <v>383</v>
+      <c r="M67" s="2">
+        <v>32.71425</v>
       </c>
       <c r="N67" s="2">
         <v>130.69999999999999</v>
@@ -33432,7 +33429,7 @@
         <v>38</v>
       </c>
       <c r="R94" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="S94" s="10">
         <v>90.305323047599998</v>
@@ -33771,7 +33768,7 @@
         <v>38</v>
       </c>
       <c r="R95" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S95" s="10">
         <v>73.755288928100001</v>
@@ -43602,7 +43599,7 @@
         <v>75</v>
       </c>
       <c r="R124" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="S124" s="10">
         <v>75.628313054900005</v>
@@ -43941,7 +43938,7 @@
         <v>75</v>
       </c>
       <c r="R125" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="S125" s="10">
         <v>81.802717083000005</v>
